--- a/biology/Médecine/Urticaire/Urticaire.xlsx
+++ b/biology/Médecine/Urticaire/Urticaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'urticaire (nom féminin, latin : urticaria, dérivé de urtica, ortie) est une dermatose inflammatoire marquée par un œdème dermique (urticaire superficielle) ou dermo-hypodermique (urticaire profonde). La forme superficielle est la plus fréquente. Elle s'exprime par une éruption cutanée érythémateuse et papuleuse dont les lésions sont typiquement fugaces, migratrices et prurigineuses. Le diagnostic est clinique.
 L'urticaire est le plus souvent aigüe, la forme chronique étant définie par une évolution supérieure à six semaines. Les principales causes d'urticaire aiguë sont alimentaires ou virales. La majorité des urticaires chroniques est de cause inconnue (idiopathique).
@@ -513,14 +525,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une éruption cutanée mobile et fugace à contours nets (une série de marques rouges sur la peau, évoquant des piqûres d'orties) accompagnée d'un besoin de grattage.[réf. souhaitée], se résorbant complètement en 6 semaines au plus[1]. L'urticaire chronique ne se distingue pas visuellement de l'urticaire transitoire. On distingue :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une éruption cutanée mobile et fugace à contours nets (une série de marques rouges sur la peau, évoquant des piqûres d'orties) accompagnée d'un besoin de grattage.[réf. souhaitée], se résorbant complètement en 6 semaines au plus. L'urticaire chronique ne se distingue pas visuellement de l'urticaire transitoire. On distingue :
 l'urticaire superficielle est constituée de papules œdémateuses érythémateuses ou rosées, à bords nets ; en règle générale, elles sont fugaces, migratrices et prurigineuses ;
 l'urticaire profonde est un angioœdème qui peut atteindre peau et muqueuses. La tuméfaction est ferme, limitée et non prurigineuse. L'atteinte de la muqueuse orolaryngée est un élément diagnostic majeur. La dysphonie, signant une atteinte laryngée, ou l'hypersalivation par trouble de la déglutition sont des signes de gravité majeure. Lorsque l'atteinte est faciale, on parle d'œdème de Quincke.
-Selon une étude de 2020, les 3/4 des personnes touchées par l'urticaire chronique spontanée (UCS) sont des femmes, avec alors des effets souvent graves sur leur qualité de vie et leur santé mentale, tout particulièrement en cas d'angio-œdème fréquent ; source d'anxiété, de fatigue et de dépression. 67,9% d'un groupe de patientes interrogées signalent une altération de leur sexualité induit par une forte activité de la maladie ou un mauvais contrôle de la maladie. Les auteurs invitent à des études supplémentaires sur la santé sexuelle et les moyens de la préserver chez ces patientes[2].
-Dans le cas de l'urticaire géante, la surface couverte est importante et les taches se transforment en cloques parfois épaisses de quelques millimètres, avec démangeaisons parfois sévères et sensation de chaleur associée[3].
-L'urticaire peut être aigüe ou chronique[4]. 
+Selon une étude de 2020, les 3/4 des personnes touchées par l'urticaire chronique spontanée (UCS) sont des femmes, avec alors des effets souvent graves sur leur qualité de vie et leur santé mentale, tout particulièrement en cas d'angio-œdème fréquent ; source d'anxiété, de fatigue et de dépression. 67,9% d'un groupe de patientes interrogées signalent une altération de leur sexualité induit par une forte activité de la maladie ou un mauvais contrôle de la maladie. Les auteurs invitent à des études supplémentaires sur la santé sexuelle et les moyens de la préserver chez ces patientes.
+Dans le cas de l'urticaire géante, la surface couverte est importante et les taches se transforment en cloques parfois épaisses de quelques millimètres, avec démangeaisons parfois sévères et sensation de chaleur associée.
+L'urticaire peut être aigüe ou chronique. 
 </t>
         </is>
       </c>
@@ -549,11 +563,13 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’œdème dermique ou dermo-hypodermique est lié à une vasodilatation avec augmentation de la perméabilité capillaire[5]. 
-On distingue deux grandes familles d'urticaires[5] : les urticaires immunologiques et les urticaires non immunologiques, les plus fréquentes. 
-Pour ce qui est des urticaires immunologiques, la réaction d'hypersensibilté de type I est la plus fréquente. Quels que soient leurs mécanismes, on distingue une phase primaire qui mobilise des médiateurs primaires tels l'histamine, les prostaglandines… puis une phase secondaire dominée par la libération de médiateurs[5] composés de polynucléaires ou de monocytes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’œdème dermique ou dermo-hypodermique est lié à une vasodilatation avec augmentation de la perméabilité capillaire. 
+On distingue deux grandes familles d'urticaires : les urticaires immunologiques et les urticaires non immunologiques, les plus fréquentes. 
+Pour ce qui est des urticaires immunologiques, la réaction d'hypersensibilté de type I est la plus fréquente. Quels que soient leurs mécanismes, on distingue une phase primaire qui mobilise des médiateurs primaires tels l'histamine, les prostaglandines… puis une phase secondaire dominée par la libération de médiateurs composés de polynucléaires ou de monocytes.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'urticaire peut être causée par des mastocytes fragiles[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'urticaire peut être causée par des mastocytes fragiles.
 L’urticaire est due, dans la grande majorité des cas, à la « fragilité » des mastocytes. Celle-ci est dépendante de la susceptibilité individuelle. Les mastocytes sont plus réactifs et vont éclater spontanément ou sous l’influence de substances dites « histamino-libératrices », telles que :
 certains aliments (fraises, crustacés, fromages, etc.) ;
 certains médicaments (aspirine, morphine, codéine, antibiotiques, etc.) ;
@@ -628,9 +646,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le diagnostic[6] d’une urticaire repose essentiellement sur un interrogatoire et un examen clinique réalisés par un médecin.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic d’une urticaire repose essentiellement sur un interrogatoire et un examen clinique réalisés par un médecin.
 L’interrogatoire doit servir à rechercher des antécédents d’urticaire ou de maladie auto-immune, personnels ou familiaux. Il doit permettre de préciser les facteurs responsables de la poussée d’urticaire et à mettre en évidence une urticaire physique.
 L’examen clinique s’attachera à différencier une urticaire simple d’une urticaire systémique, également appelée vasculite urticarienne (inflammation des vaisseaux). L’affection systémique peut n’apparaitre que secondairement à l’urticaire. Cette urticaire se caractérise par des lésions fixes durant plus de 24h, qui démangent peu. L’examen clinique permet également de s’assurer de l’absence d’une maladie auto-immune, qui nécessitera alors des bilans complémentaires adaptés.
 </t>
@@ -661,12 +681,14 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prise en charge des urticaires a fait l'objet de la publication de recommandations. Celles de l' « European Academy of Allergology  and Clinical Immunology » (EAACI), du « Global Allergy and Asthma European Network » (GA2LEN), du « European Dermatology Forum » (EDF) and du « World Allergy Organization » (WAO) datent de 2022[7]. 
-Il existe des médicaments qui ne servent qu'à soulager les symptômes [8] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prise en charge des urticaires a fait l'objet de la publication de recommandations. Celles de l' « European Academy of Allergology  and Clinical Immunology » (EAACI), du « Global Allergy and Asthma European Network » (GA2LEN), du « European Dermatology Forum » (EDF) and du « World Allergy Organization » (WAO) datent de 2022. 
+Il existe des médicaments qui ne servent qu'à soulager les symptômes  :
 Les antihistaminiques non sédatifs qui bloquent les récepteurs H1 à l'histamine constitue la première ligne de traitement. Les antihistaminiques de première génération comme la diphenhydramine et l'hydroxyzine ne sont pas sélectifs et agissent sur les récepteurs centraux et sur les périphériques. Ils sont donc souvent très sédatifs. Les antihistaminiques de seconde génération comme la loratadine, cétirizine et desloratadine sont sélectifs pour les récepteurs périphériques. Ils sont donc beaucoup moins sédatifs et les effets anticholinergiques sont réduits. Ils sont donc utilisés de préférence. La cétirizine (Zyrtec) a fait l'objet de plusieurs essais favorables dans le traitement des urticaires.
-Au-delà de 6 semaines, l'urticaire devient chronique[9]. Il peut alors recouvrir le corps entier de plaques et des angio-oedemes peuvent survenir. Il nécessite alors une véritable prise en charge médicale pour aider les patients[10]. Dans le cas de patients qui ne répondent pas aux doses habituelles d'antihistaminiques, on peut augmenter les doses, passer aux molécules de première génération comme l'hydroxyzine (Atarax) ou l'on peut utiliser des doses jusqu'à 100 mg d'hydroxyzine. Enfin, on peut passer aux corticostéroïdes (limités à quelques jours) ou, en dernier recours, à la ciclosporine ou à l'omalizumab. L'urticaire chronique est une maladie invalidante au quotidien. Des associations peuvent soutenir les patients atteints en répondant notamment à leurs questions[11]. Au quotidien, des astuces peuvent être mises en place pour soutenir le quotidien difficile des malades[12]. Récemment, le comité médical de l'AFSAM-UCS a confirmé que "Les infections, le stress, certains médicaments peuvent être des facteurs favorisants les crises d'UCS"[réf. souhaitée]. A ce titre, un travail concernant la gestion du stress notamment peut apporter un soutien complémentaire aux soins médicaux du patient.
+Au-delà de 6 semaines, l'urticaire devient chronique. Il peut alors recouvrir le corps entier de plaques et des angio-oedemes peuvent survenir. Il nécessite alors une véritable prise en charge médicale pour aider les patients. Dans le cas de patients qui ne répondent pas aux doses habituelles d'antihistaminiques, on peut augmenter les doses, passer aux molécules de première génération comme l'hydroxyzine (Atarax) ou l'on peut utiliser des doses jusqu'à 100 mg d'hydroxyzine. Enfin, on peut passer aux corticostéroïdes (limités à quelques jours) ou, en dernier recours, à la ciclosporine ou à l'omalizumab. L'urticaire chronique est une maladie invalidante au quotidien. Des associations peuvent soutenir les patients atteints en répondant notamment à leurs questions. Au quotidien, des astuces peuvent être mises en place pour soutenir le quotidien difficile des malades. Récemment, le comité médical de l'AFSAM-UCS a confirmé que "Les infections, le stress, certains médicaments peuvent être des facteurs favorisants les crises d'UCS"[réf. souhaitée]. A ce titre, un travail concernant la gestion du stress notamment peut apporter un soutien complémentaire aux soins médicaux du patient.
 </t>
         </is>
       </c>
